--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huqingyuan314/Graduate/NEU/Course/DS5110/Project/Iteration#02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356B3610-6D70-9740-A1A2-3EA578EE6566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7BCA2E-F5BB-E046-87F7-7C8E7A1B4CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -43,9 +43,6 @@
     <t>OVERALL PROGRESS</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>TASK NAME</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Overdue</t>
-  </si>
-  <si>
     <t>In Progress</t>
   </si>
   <si>
@@ -74,13 +68,27 @@
   </si>
   <si>
     <t>PROJECT SCHEDULE TEMPLATE</t>
+  </si>
+  <si>
+    <t>Team Formation and Topic Description</t>
+  </si>
+  <si>
+    <t>Qingyuan Hu, Yunmu Shu</t>
+  </si>
+  <si>
+    <t>Iteration #02</t>
+  </si>
+  <si>
+    <t>Creating a data visualization dashboard for
+ monitoring key metrics and performance
+ indicators in a manufacturing plant.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +100,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -107,8 +116,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,12 +177,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -182,55 +190,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,335 +551,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="34.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>45796</v>
+      </c>
+      <c r="B7" s="11">
+        <v>45873</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14">
+        <v>45796</v>
+      </c>
+      <c r="D9" s="14">
+        <v>45810</v>
+      </c>
+      <c r="E9" s="13">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14">
+        <v>45810</v>
+      </c>
+      <c r="D10" s="14">
         <v>45817</v>
       </c>
-      <c r="B6" s="9">
+      <c r="E10" s="13">
+        <v>7</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14">
+        <v>45817</v>
+      </c>
+      <c r="D11" s="14">
+        <v>45824</v>
+      </c>
+      <c r="E11" s="13">
+        <v>7</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="14">
+        <v>45824</v>
+      </c>
+      <c r="D12" s="14">
+        <v>45831</v>
+      </c>
+      <c r="E12" s="13">
+        <v>7</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="14">
+        <v>45831</v>
+      </c>
+      <c r="D13" s="14">
+        <v>45838</v>
+      </c>
+      <c r="E13" s="13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="14">
+        <v>45838</v>
+      </c>
+      <c r="D14" s="14">
+        <v>45845</v>
+      </c>
+      <c r="E14" s="13">
+        <v>7</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="14">
+        <v>45845</v>
+      </c>
+      <c r="D15" s="14">
+        <v>45852</v>
+      </c>
+      <c r="E15" s="13">
+        <v>7</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="14">
+        <v>45852</v>
+      </c>
+      <c r="D16" s="14">
+        <v>45859</v>
+      </c>
+      <c r="E16" s="13">
+        <v>7</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="14">
+        <v>45859</v>
+      </c>
+      <c r="D17" s="14">
+        <v>45866</v>
+      </c>
+      <c r="E17" s="13">
+        <v>7</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14">
+        <v>45866</v>
+      </c>
+      <c r="D18" s="14">
         <v>45873</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D8" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D9" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E9" s="10">
-        <v>5</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D10" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E10" s="10">
-        <v>6</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D11" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E11" s="10">
-        <v>3</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D12" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E12" s="10">
-        <v>5</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D13" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D14" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E14" s="10">
-        <v>5</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D15" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E15" s="10">
-        <v>3</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D16" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E16" s="10">
-        <v>5</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D17" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E17" s="10">
-        <v>5</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D18" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E18" s="10">
-        <v>9</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E18" s="13">
+        <v>7</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D19" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E19" s="10">
-        <v>4</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13">
+        <v>7</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D20" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E20" s="10">
-        <v>3</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13">
+        <v>7</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
-        <v>45817</v>
-      </c>
-      <c r="D21" s="11">
-        <v>45873</v>
-      </c>
-      <c r="E21" s="10">
-        <v>4</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13">
+        <v>7</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13">
+        <v>7</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huqingyuan314/Graduate/NEU/Course/DS5110/Project/Iteration#02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7BCA2E-F5BB-E046-87F7-7C8E7A1B4CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9829E7-0A54-FB42-95D5-3F255C5C7949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Schedule" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>PROJECT NAME</t>
-  </si>
-  <si>
-    <t>PROJECT MANAGER</t>
   </si>
   <si>
     <t>PROJECT DELIVERABLE</t>
@@ -82,6 +79,39 @@
     <t>Creating a data visualization dashboard for
  monitoring key metrics and performance
  indicators in a manufacturing plant.</t>
+  </si>
+  <si>
+    <t>Define metrics and find datasets</t>
+  </si>
+  <si>
+    <t>Complete data cleaning and preprocessing</t>
+  </si>
+  <si>
+    <t>Develop visualizations and dashboard wireframes</t>
+  </si>
+  <si>
+    <t>Final dashboard prototype with interactivity</t>
+  </si>
+  <si>
+    <t>Final submission with documentation and presentation</t>
+  </si>
+  <si>
+    <t>Qingyuan Hu</t>
+  </si>
+  <si>
+    <t>Yunmu Shu</t>
+  </si>
+  <si>
+    <t>Datasets collection.
+Data cleaning, preprocessing, and structuring.
+Backend design.</t>
+  </si>
+  <si>
+    <t>Dashboard integration and frontend design.
+API setup and interactivity.</t>
+  </si>
+  <si>
+    <t>PROJECT MEMBER</t>
   </si>
 </sst>
 </file>
@@ -190,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,12 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -248,6 +272,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,16 +587,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
@@ -570,383 +606,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>45796</v>
       </c>
-      <c r="B7" s="11">
-        <v>45873</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="9">
+        <v>45880</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45796</v>
+      </c>
+      <c r="D9" s="12">
+        <v>45810</v>
+      </c>
+      <c r="E9" s="11">
+        <v>14</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="14">
-        <v>45796</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="C10" s="12">
         <v>45810</v>
       </c>
-      <c r="E9" s="13">
+      <c r="D10" s="12">
+        <v>45817</v>
+      </c>
+      <c r="E10" s="11">
+        <v>7</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45817</v>
+      </c>
+      <c r="D11" s="12">
+        <v>45824</v>
+      </c>
+      <c r="E11" s="11">
+        <v>7</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45824</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45838</v>
+      </c>
+      <c r="E12" s="11">
         <v>14</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="14">
-        <v>45810</v>
-      </c>
-      <c r="D10" s="14">
-        <v>45817</v>
-      </c>
-      <c r="E10" s="13">
-        <v>7</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="14">
-        <v>45817</v>
-      </c>
-      <c r="D11" s="14">
-        <v>45824</v>
-      </c>
-      <c r="E11" s="13">
-        <v>7</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12">
+        <v>45838</v>
+      </c>
+      <c r="D13" s="12">
+        <v>45852</v>
+      </c>
+      <c r="E13" s="11">
         <v>14</v>
       </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="14">
-        <v>45824</v>
-      </c>
-      <c r="D12" s="14">
-        <v>45831</v>
-      </c>
-      <c r="E12" s="13">
-        <v>7</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="F13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45852</v>
+      </c>
+      <c r="D14" s="12">
+        <v>45866</v>
+      </c>
+      <c r="E14" s="11">
         <v>14</v>
       </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="14">
-        <v>45831</v>
-      </c>
-      <c r="D13" s="14">
-        <v>45838</v>
-      </c>
-      <c r="E13" s="13">
-        <v>7</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="F14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12">
+        <v>45866</v>
+      </c>
+      <c r="D15" s="12">
+        <v>45880</v>
+      </c>
+      <c r="E15" s="11">
         <v>14</v>
       </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="14">
-        <v>45838</v>
-      </c>
-      <c r="D14" s="14">
-        <v>45845</v>
-      </c>
-      <c r="E14" s="13">
-        <v>7</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="14">
-        <v>45845</v>
-      </c>
-      <c r="D15" s="14">
-        <v>45852</v>
-      </c>
-      <c r="E15" s="13">
-        <v>7</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="9"/>
+      <c r="F15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="14">
-        <v>45852</v>
-      </c>
-      <c r="D16" s="14">
-        <v>45859</v>
-      </c>
-      <c r="E16" s="13">
-        <v>7</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="14">
-        <v>45859</v>
-      </c>
-      <c r="D17" s="14">
-        <v>45866</v>
-      </c>
-      <c r="E17" s="13">
-        <v>7</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="14">
-        <v>45866</v>
-      </c>
-      <c r="D18" s="14">
-        <v>45873</v>
-      </c>
-      <c r="E18" s="13">
-        <v>7</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13">
-        <v>7</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13">
-        <v>7</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13">
-        <v>7</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13">
-        <v>7</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
